--- a/common/template/document/teachers_schedule.xlsx
+++ b/common/template/document/teachers_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/domains/ais-dsi.loc/common/template/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946B1DD5-FB4C-FF41-AED4-D88422C3816C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D1D36C-7101-2142-951B-DEFC44714C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" xr2:uid="{F29247BA-6688-2146-B7E5-FBC3C6D6EF13}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14260" xr2:uid="{F29247BA-6688-2146-B7E5-FBC3C6D6EF13}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Время</t>
   </si>
@@ -86,22 +86,16 @@
     <t>Согласовано:</t>
   </si>
   <si>
-    <t>Пыжов Р.В.</t>
-  </si>
-  <si>
-    <t>Батыршин И.Р.</t>
-  </si>
-  <si>
-    <t>Щербина А.В.</t>
-  </si>
-  <si>
-    <t>Усачева Е.А.</t>
-  </si>
-  <si>
     <t>Нагр.</t>
   </si>
   <si>
     <t>Деят-ть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[doc.signer_fio] </t>
+  </si>
+  <si>
+    <t>[doc.date_sign]</t>
   </si>
 </sst>
 </file>
@@ -237,9 +231,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,7 +238,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,10 +248,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -576,9 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF30FC6-1D40-1445-AEAF-DBC43CD70656}">
-  <dimension ref="A3:G15"/>
+  <dimension ref="A3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -592,75 +592,75 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+    <row r="5" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -670,33 +670,19 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="13" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:G3"/>
